--- a/Banco de Dados/Modelagem/modelo_fisico.xlsx
+++ b/Banco de Dados/Modelagem/modelo_fisico.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{A2A61FD6-3EC0-4ED9-814F-42F0F0032C62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{3E87920A-D3BC-45B0-8823-D2C520082CC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>tipoUsuario</t>
   </si>
@@ -226,13 +220,139 @@
   </si>
   <si>
     <t>Psiquiatria</t>
+  </si>
+  <si>
+    <t>pacientes</t>
+  </si>
+  <si>
+    <t>idPaciente</t>
+  </si>
+  <si>
+    <t>dataNascimento</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>endereco</t>
+  </si>
+  <si>
+    <t>11 3456-7654</t>
+  </si>
+  <si>
+    <t>11 98765-6543</t>
+  </si>
+  <si>
+    <t>11 97208-4453</t>
+  </si>
+  <si>
+    <t>11 3456-6543</t>
+  </si>
+  <si>
+    <t>11 7656-6377</t>
+  </si>
+  <si>
+    <t>11 95436-8769</t>
+  </si>
+  <si>
+    <t>43522543-5</t>
+  </si>
+  <si>
+    <t>32654345-7</t>
+  </si>
+  <si>
+    <t>54636525-3</t>
+  </si>
+  <si>
+    <t>54366362-5</t>
+  </si>
+  <si>
+    <t>53254444-1</t>
+  </si>
+  <si>
+    <t>54566266-7</t>
+  </si>
+  <si>
+    <t>54566266-8</t>
+  </si>
+  <si>
+    <t>Rua Estado de Israel 240, São Paulo, Estado de São Paulo, 04022-000</t>
+  </si>
+  <si>
+    <t>Av. Paulista, 1578 - Bela Vista, São Paulo - SP, 01310-200</t>
+  </si>
+  <si>
+    <t>Av. Ibirapuera - Indianópolis, 2927,  São Paulo - SP, 04029-200</t>
+  </si>
+  <si>
+    <t>R. Vitória, 120 - Vila Sao Jorge, Barueri - SP, 06402-030</t>
+  </si>
+  <si>
+    <t>R. Ver. Geraldo de Camargo, 66 - Santa Luzia, Ribeirão Pires - SP, 09405-380</t>
+  </si>
+  <si>
+    <t>Alameda dos Arapanés, 945 - Indianópolis, São Paulo - SP, 04524-001</t>
+  </si>
+  <si>
+    <t>R Sao Antonio, 232 - Vila Universal, Barueri - SP, 06407-140</t>
+  </si>
+  <si>
+    <t>clinicas</t>
+  </si>
+  <si>
+    <t>nomeClinica</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>razaoSocial</t>
+  </si>
+  <si>
+    <t>Clinica Possarle</t>
+  </si>
+  <si>
+    <t>86.400.902/0001-30</t>
+  </si>
+  <si>
+    <t>SP Medical Group</t>
+  </si>
+  <si>
+    <t>Av. Barão Limeira, 532, São Paulo, SP</t>
+  </si>
+  <si>
+    <t>consultas</t>
+  </si>
+  <si>
+    <t>idConsulta</t>
+  </si>
+  <si>
+    <t>dataConsulta</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>Realizada</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
+  </si>
+  <si>
+    <t>Agendada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +374,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +454,59 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -352,49 +531,90 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="15" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="13">
     <cellStyle name="40% - Ênfase1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - Ênfase2" xfId="5" builtinId="35"/>
     <cellStyle name="40% - Ênfase4" xfId="8" builtinId="43"/>
+    <cellStyle name="40% - Ênfase6" xfId="11" builtinId="51"/>
     <cellStyle name="60% - Ênfase1" xfId="3" builtinId="32"/>
     <cellStyle name="60% - Ênfase2" xfId="6" builtinId="36"/>
     <cellStyle name="60% - Ênfase4" xfId="9" builtinId="44"/>
+    <cellStyle name="60% - Ênfase6" xfId="12" builtinId="52"/>
     <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
     <cellStyle name="Ênfase2" xfId="4" builtinId="33"/>
     <cellStyle name="Ênfase4" xfId="7" builtinId="41"/>
+    <cellStyle name="Ênfase6" xfId="10" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -699,455 +919,826 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5191066A-C8EE-4123-B89B-4C0AB3B42E3B}">
-  <dimension ref="B3:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="R2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="X2" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="11"/>
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="K3" s="8" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="K3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="R3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="R4" s="26">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="S4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="X4" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="30">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="29">
+        <v>43850.625</v>
+      </c>
+      <c r="AB4" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="23">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="23">
         <v>3</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="20">
         <v>1</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="20">
         <v>8</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
+      <c r="M5" s="20">
+        <v>2</v>
+      </c>
+      <c r="N5" s="20">
+        <v>1</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="X5" s="30">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="Y5" s="30">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="29">
+        <v>43836.416666666664</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="23">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="23">
         <v>3</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="20">
         <v>2</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="20">
         <v>9</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10" t="s">
+      <c r="M6" s="20">
+        <v>17</v>
+      </c>
+      <c r="N6" s="20">
+        <v>1</v>
+      </c>
+      <c r="O6" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="X6" s="30">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="Y6" s="30">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>43868.458333333336</v>
+      </c>
+      <c r="AB6" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="22">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="23">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="23">
         <v>3</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="20">
         <v>3</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="20">
         <v>10</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10" t="s">
+      <c r="M7" s="20">
+        <v>16</v>
+      </c>
+      <c r="N7" s="20">
+        <v>1</v>
+      </c>
+      <c r="O7" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E8" s="7">
+      <c r="X7" s="30">
         <v>4</v>
       </c>
-      <c r="F8" s="7">
+      <c r="Y7" s="30">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>43137.416666666664</v>
+      </c>
+      <c r="AB7" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="E8" s="23">
+        <v>4</v>
+      </c>
+      <c r="F8" s="23">
         <v>3</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="X8" s="30">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="30">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="29">
+        <v>43503.458333333336</v>
+      </c>
+      <c r="AB8" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="E9" s="7">
+      <c r="C9" s="14"/>
+      <c r="E9" s="23">
         <v>5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="23">
         <v>3</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="K9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="X9" s="30">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="30">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="29">
+        <v>43898.625</v>
+      </c>
+      <c r="AB9" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="23">
         <v>6</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="23">
         <v>3</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
+      <c r="K10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="X10" s="30">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="30">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="29">
+        <v>43899.458333333336</v>
+      </c>
+      <c r="AB10" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="24">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="23">
         <v>7</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="23">
         <v>3</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1</v>
+      </c>
+      <c r="M11" s="25">
+        <v>30602</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="21">
+        <v>94839859000</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="24">
         <v>2</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="23">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="23">
         <v>2</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
+      <c r="K12" s="21">
+        <v>2</v>
+      </c>
+      <c r="L12" s="21">
+        <v>2</v>
+      </c>
+      <c r="M12" s="25">
+        <v>37095</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="21">
+        <v>73556944057</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24">
         <v>3</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="23">
         <v>9</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="23">
         <v>2</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="14">
+      <c r="K13" s="21">
+        <v>3</v>
+      </c>
+      <c r="L13" s="21">
+        <v>3</v>
+      </c>
+      <c r="M13" s="25">
+        <v>28773</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="21">
+        <v>16839338002</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24">
         <v>4</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="23">
         <v>10</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="23">
         <v>2</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="14">
+      <c r="K14" s="21">
+        <v>4</v>
+      </c>
+      <c r="L14" s="21">
+        <v>4</v>
+      </c>
+      <c r="M14" s="25">
+        <v>31333</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="21">
+        <v>14332654765</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24">
         <v>5</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
+      <c r="K15" s="21">
+        <v>5</v>
+      </c>
+      <c r="L15" s="21">
+        <v>5</v>
+      </c>
+      <c r="M15" s="25">
+        <v>27633</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="21">
+        <v>91305348010</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="24">
         <v>6</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="14">
+      <c r="K16" s="21">
+        <v>6</v>
+      </c>
+      <c r="L16" s="21">
+        <v>6</v>
+      </c>
+      <c r="M16" s="25">
+        <v>26379</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="21">
+        <v>79799299004</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="24">
         <v>7</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14">
+      <c r="K17" s="21">
+        <v>7</v>
+      </c>
+      <c r="L17" s="21">
+        <v>7</v>
+      </c>
+      <c r="M17" s="25">
+        <v>43164</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="21">
+        <v>13771913039</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="24">
         <v>8</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="24">
         <v>9</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="24">
         <v>10</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="14">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="24">
         <v>11</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="24">
         <v>12</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="14">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="24">
         <v>13</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="14">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="24">
         <v>14</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="24">
         <v>15</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="14">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="24">
         <v>16</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="14">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="24">
         <v>17</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="8" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="X2:AB2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="K9:Q9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
